--- a/Testing document.xlsx
+++ b/Testing document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\appma\Google Drive\Uta\2019 Spring\Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d694396d1dec6c2b/Desktop/Software Project Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4916408D-85AF-4831-9540-123938015982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{011745D6-4DCC-46F0-BD88-AA021EECEEFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7C94C936-DE78-4A4C-BFCA-4332601A2B6A}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="20280" windowHeight="11745" xr2:uid="{7C94C936-DE78-4A4C-BFCA-4332601A2B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
